--- a/Task Management Tracker START.xlsx
+++ b/Task Management Tracker START.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjifarre/Desktop/Create/1. Video/1. YouTube/1. Videos/240. Task Management Tracker/2. Footage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COUSERA\Excel project\Dynamic-Task-Management-Tracker-in-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4037F922-6E99-9A44-9A7E-17774ABD611B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B78E66-ACA3-44E5-8BD0-FCA07AD1D0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="760" windowWidth="23260" windowHeight="13180" activeTab="1" xr2:uid="{1A5F5666-BE82-F64F-A80E-7F153D5D7E43}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1A5F5666-BE82-F64F-A80E-7F153D5D7E43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover Page" sheetId="5" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="4" r:id="rId2"/>
-    <sheet name="Support Sheet" sheetId="2" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId1"/>
+    <sheet name="Support Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="age">#REF!</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>Task Name</t>
   </si>
@@ -256,72 +255,13 @@
   </si>
   <si>
     <t>Team</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Get </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10% OFF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> our course using coupon code </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EMAIL10</t>
-    </r>
-  </si>
-  <si>
-    <t>Get our Excel for Business &amp; Finance Course</t>
-  </si>
-  <si>
-    <t>Go to Data Here</t>
-  </si>
-  <si>
-    <t>Made by Career Principles Ltd.</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>All content is copyright material of Career Principles Ltd.</t>
-  </si>
-  <si>
-    <t>This Excel model may not be reproduced or distributed by any means, including printing, 
-screencapturing, or any other method without the prior permission of the publisher.</t>
-  </si>
-  <si>
-    <t>Task Management Tracker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,64 +313,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="60"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="20"/>
-      <color rgb="FF073673"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF0432FF"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,20 +327,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF073673"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -464,110 +336,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,49 +361,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{D116B123-67C6-344C-8E97-773FA34E970D}"/>
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{D116B123-67C6-344C-8E97-773FA34E970D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A1221B63-1151-9945-AD17-D34A8F7994D7}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6371BA46-78D2-CF43-B416-26A12EFA2F80}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6371BA46-78D2-CF43-B416-26A12EFA2F80}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,51 +392,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2487126</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>68813</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2648507" cy="921414"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A1658C-54A2-1D4C-934D-D1401417D79D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3960326" y="1465813"/>
-          <a:ext cx="2648507" cy="921414"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1114,140 +808,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33356E0-76AA-174E-ACC1-F9D757CC725B}">
-  <dimension ref="B3:D18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="10"/>
-    <col min="2" max="2" width="8.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="95.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="78" x14ac:dyDescent="0.2">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="2:4" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="2:4" ht="22" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="2:4" ht="11" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="2:4" s="19" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:4" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="11"/>
-      <c r="C15" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B17" s="11"/>
-      <c r="C17" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zwwAiLVQ4ObB2URpFUW07rgCsWZ6Uj8PRKvsewONocJsCSaKAooP+cvBYhXut+3VVqobFnklKRyrJcRByIKoKQ==" saltValue="XyrmH8SG+r5Rc89ogrCvpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="Get our VBA &amp; Macros Course" xr:uid="{094276ED-8C60-794A-802A-E39D1B6A24F2}"/>
-    <hyperlink ref="C11" location="Dashboard!A1" display="Go to Data Here" xr:uid="{B3D4263D-A5AD-B749-91D5-2DA9C1614126}"/>
-    <hyperlink ref="C13" r:id="rId2" display="Made by Kenji Explains" xr:uid="{754CA44A-D904-9543-B440-C8A3F3C59240}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FA565C-E58D-E845-893A-5E7880C6E96F}">
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
@@ -1258,8 +826,8 @@
     <col min="11" max="11" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1291,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1403,7 +971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1431,7 +999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1459,7 +1027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1487,7 +1055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1515,7 +1083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1543,7 +1111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1571,7 +1139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1599,7 +1167,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1627,7 +1195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1655,7 +1223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1683,7 +1251,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1717,13 +1285,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD76006-6B40-364D-90DA-E56E32DD5F29}">
   <dimension ref="B2:K10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
@@ -1736,7 +1304,7 @@
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +1327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1773,7 +1341,7 @@
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1786,7 +1354,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1799,7 +1367,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -1812,13 +1380,13 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="E10" s="1"/>
     </row>
   </sheetData>
